--- a/data/Canela.xlsx
+++ b/data/Canela.xlsx
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,11 +5095,11 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5108,12 +5108,12 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,11 +5143,11 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5156,12 +5156,12 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Parque Eólico Punta Palmeras (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7250,16 +7250,16 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>PUNTA PALMERAS S.A.</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>0</v>
+        <v>230000</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7268,12 +7268,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3498566&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Parque Eólico Punta Palmeras (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7298,16 +7298,16 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>PUNTA PALMERAS S.A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>230000</v>
+        <v>0</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7316,12 +7316,12 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3498566&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">

--- a/data/Canela.xlsx
+++ b/data/Canela.xlsx
@@ -3476,7 +3476,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">

--- a/data/Canela.xlsx
+++ b/data/Canela.xlsx
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,11 +5095,11 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5108,12 +5108,12 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,11 +5143,11 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5156,12 +5156,12 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Parque Eólico Punta Palmeras (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7250,16 +7250,16 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>PUNTA PALMERAS S.A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>230000</v>
+        <v>0</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7268,12 +7268,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3498566&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Parque Eólico Punta Palmeras (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7298,16 +7298,16 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>PUNTA PALMERAS S.A.</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>0</v>
+        <v>230000</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7316,12 +7316,12 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3498566&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">

--- a/data/Canela.xlsx
+++ b/data/Canela.xlsx
@@ -548,7 +548,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">

--- a/data/Canela.xlsx
+++ b/data/Canela.xlsx
@@ -8983,7 +8983,7 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Minera Cerro Dominador S.A.</t>
+          <t>Salva-21 SpA</t>
         </is>
       </c>
       <c r="F180" t="n">

--- a/data/Canela.xlsx
+++ b/data/Canela.xlsx
@@ -6727,7 +6727,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Sociedad Transportes Ilzauspe Limitada</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F133" t="n">

--- a/data/Canela.xlsx
+++ b/data/Canela.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Canela.xlsx
+++ b/data/Canela.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Transporte terrestre de ácido sulfúrico y PLS entre la región de Arica y Parinacota y Valparaíso</t>
+          <t>Transporte terrestre de ácido sulfúrico entre la región de Arica y Parinacota y Atacama</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,11 +5095,11 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5108,12 +5108,12 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,11 +5143,11 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5156,12 +5156,12 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Parque Eólico Punta Palmeras (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7250,16 +7250,16 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>PUNTA PALMERAS S.A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>230000</v>
+        <v>0</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7268,12 +7268,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3498566&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Parque Eólico Punta Palmeras (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7298,16 +7298,16 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>PUNTA PALMERAS S.A.</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>0</v>
+        <v>230000</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7316,12 +7316,12 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3498566&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">

--- a/data/Canela.xlsx
+++ b/data/Canela.xlsx
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,11 +5095,11 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5108,12 +5108,12 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,11 +5143,11 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5156,12 +5156,12 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Parque Eólico Punta Palmeras (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7250,16 +7250,16 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>PUNTA PALMERAS S.A.</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>0</v>
+        <v>230000</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7268,12 +7268,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3498566&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Parque Eólico Punta Palmeras (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7298,16 +7298,16 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>PUNTA PALMERAS S.A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>230000</v>
+        <v>0</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7316,12 +7316,12 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3498566&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -13303,7 +13303,7 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>Concesiones del Elqui S.A.</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F270" t="n">

--- a/data/Canela.xlsx
+++ b/data/Canela.xlsx
@@ -7399,7 +7399,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>ACCIONA ENERGIA CHILE S.A.</t>
+          <t>Acciona Energía Chile SpA</t>
         </is>
       </c>
       <c r="F147" t="n">

--- a/data/Canela.xlsx
+++ b/data/Canela.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J270"/>
+  <dimension ref="A1:J271"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13330,6 +13330,50 @@
         </is>
       </c>
     </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>270</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>CONTENIDOS DIA 22</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>Cuarta</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>Empresa Prueba de Ingreso Proyecto</t>
+        </is>
+      </c>
+      <c r="F271" t="n">
+        <v>0</v>
+      </c>
+      <c r="G271" t="inlineStr"/>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>Eliminados</t>
+        </is>
+      </c>
+      <c r="I271" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129814559&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J271" t="inlineStr">
+        <is>
+          <t>Canela</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/Canela.xlsx
+++ b/data/Canela.xlsx
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,11 +5143,11 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5156,12 +5156,12 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,11 +5191,11 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5204,12 +5204,12 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Parque Eólico Punta Palmeras (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7298,16 +7298,16 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>PUNTA PALMERAS S.A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>230000</v>
+        <v>0</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7316,12 +7316,12 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3498566&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Parque Eólico Punta Palmeras (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7346,16 +7346,16 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>PUNTA PALMERAS S.A.</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>0</v>
+        <v>230000</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -7364,12 +7364,12 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3498566&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">

--- a/data/Canela.xlsx
+++ b/data/Canela.xlsx
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,11 +5143,11 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5156,12 +5156,12 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,11 +5191,11 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5204,12 +5204,12 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Parque Eólico Punta Palmeras (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7298,16 +7298,16 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>PUNTA PALMERAS S.A.</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>0</v>
+        <v>230000</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7316,12 +7316,12 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3498566&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Parque Eólico Punta Palmeras (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7346,16 +7346,16 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>PUNTA PALMERAS S.A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>230000</v>
+        <v>0</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -7364,12 +7364,12 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3498566&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">

--- a/data/Canela.xlsx
+++ b/data/Canela.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>23/10/2023</t>
+          <t>31/10/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
